--- a/crm接口文档/客户管理/保存客户信息.xlsx
+++ b/crm接口文档/客户管理/保存客户信息.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14685" windowHeight="7950"/>
+    <workbookView windowWidth="20385" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -81,19 +81,19 @@
     <t>客户姓名</t>
   </si>
   <si>
-    <t>cusLevelId</t>
+    <t>cusLevel</t>
+  </si>
+  <si>
+    <t>客户级别</t>
+  </si>
+  <si>
+    <t>cusSource</t>
   </si>
   <si>
     <t>Integer</t>
   </si>
   <si>
-    <t>客户级别id</t>
-  </si>
-  <si>
-    <t>cusSourceId</t>
-  </si>
-  <si>
-    <t>客户来源id</t>
+    <t>客户来源</t>
   </si>
   <si>
     <t>cusMobile</t>
@@ -111,7 +111,7 @@
     <t>cusSex</t>
   </si>
   <si>
-    <t>客户性别 男 女</t>
+    <t>客户性别</t>
   </si>
   <si>
     <t>cusTelephone</t>
@@ -205,10 +205,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -264,14 +264,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -285,6 +278,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -293,15 +307,62 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -315,20 +376,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -346,22 +393,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -374,38 +406,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="37">
     <fill>
@@ -440,187 +440,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -711,25 +711,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -745,6 +736,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -768,21 +783,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -791,10 +791,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -803,133 +803,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1350,8 +1350,8 @@
   <sheetPr/>
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1488,10 +1488,10 @@
       <c r="C7" s="12"/>
       <c r="D7" s="13"/>
       <c r="E7" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="14" t="s">
         <v>22</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>23</v>
       </c>
       <c r="G7" s="15"/>
       <c r="H7" s="16"/>
@@ -1505,12 +1505,12 @@
         <v>17</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" s="12"/>
       <c r="D8" s="13"/>
       <c r="E8" s="10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F8" s="14" t="s">
         <v>25</v>

--- a/crm接口文档/客户管理/保存客户信息.xlsx
+++ b/crm接口文档/客户管理/保存客户信息.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48">
   <si>
     <t>URL</t>
   </si>
@@ -84,7 +84,7 @@
     <t>cusLevel</t>
   </si>
   <si>
-    <t>客户级别</t>
+    <t>客户级别(枚举项，enumType:CUS_LEVEL)</t>
   </si>
   <si>
     <t>cusSource</t>
@@ -93,7 +93,7 @@
     <t>Integer</t>
   </si>
   <si>
-    <t>客户来源</t>
+    <t>客户来源(枚举项，enumType:CUS_SOURCE)</t>
   </si>
   <si>
     <t>cusMobile</t>
@@ -111,7 +111,7 @@
     <t>cusSex</t>
   </si>
   <si>
-    <t>客户性别</t>
+    <t>客户性别(枚举项，enumType:SEX)</t>
   </si>
   <si>
     <t>cusTelephone</t>
@@ -160,44 +160,6 @@
   </si>
   <si>
     <t>result为false时返回的异常信息</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>CustomeVo</t>
-  </si>
-  <si>
-    <t>绑定信息的对象</t>
-  </si>
-  <si>
-    <t>cusId</t>
-  </si>
-  <si>
-    <t>Long</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF333333"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>保存客户信息获得的客户</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF333333"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>id</t>
-    </r>
-  </si>
-  <si>
-    <t>成功时必选</t>
   </si>
 </sst>
 </file>
@@ -205,10 +167,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -270,6 +232,65 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -286,14 +307,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -307,23 +337,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -336,76 +368,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="37">
     <fill>
@@ -440,43 +402,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -488,67 +558,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -560,61 +576,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -686,26 +648,35 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -742,23 +713,25 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -772,17 +745,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -791,10 +753,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -803,133 +765,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1348,15 +1310,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13:H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="5" max="5" width="9.875" customWidth="1"/>
+    <col min="8" max="8" width="16.375" customWidth="1"/>
     <col min="9" max="9" width="10.75" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1576,7 +1539,7 @@
       <c r="C11" s="12"/>
       <c r="D11" s="13"/>
       <c r="E11" s="10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F11" s="14" t="s">
         <v>31</v>
@@ -1744,50 +1707,20 @@
       </c>
       <c r="J18" s="17"/>
     </row>
-    <row r="19" ht="19" customHeight="1" spans="1:10">
-      <c r="A19" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="B19" s="17" t="s">
-        <v>48</v>
-      </c>
+    <row r="19" ht="23" customHeight="1" spans="1:10">
+      <c r="A19" s="19"/>
+      <c r="B19" s="17"/>
       <c r="C19" s="17"/>
       <c r="D19" s="17"/>
-      <c r="E19" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="F19" s="19" t="s">
-        <v>50</v>
-      </c>
+      <c r="E19" s="17"/>
+      <c r="F19" s="19"/>
       <c r="G19" s="17"/>
       <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
+      <c r="I19" s="19"/>
       <c r="J19" s="17"/>
     </row>
-    <row r="20" ht="23" customHeight="1" spans="1:10">
-      <c r="A20" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="B20" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="F20" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="J20" s="17"/>
-    </row>
   </sheetData>
-  <mergeCells count="38">
+  <mergeCells count="36">
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="B2:J2"/>
     <mergeCell ref="B3:E3"/>
@@ -1824,8 +1757,6 @@
     <mergeCell ref="F18:H18"/>
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="F19:H19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="F20:H20"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" display="https://www.21mhealth.com/" tooltip="https://www.21mhealth.com/"/>

--- a/crm接口文档/客户管理/保存客户信息.xlsx
+++ b/crm接口文档/客户管理/保存客户信息.xlsx
@@ -21,7 +21,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>/qiuxx/crm/10010/100</t>
+    <t>/crm/10010/100</t>
   </si>
   <si>
     <t>接口描述</t>
@@ -167,10 +167,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -225,6 +225,22 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -239,8 +255,92 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -262,106 +362,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -402,187 +402,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -648,26 +648,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -677,21 +662,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -722,6 +692,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -737,11 +722,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -753,10 +753,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -765,133 +765,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1313,7 +1313,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13:H13"/>
+      <selection activeCell="B1" sqref="B1:J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
